--- a/딥러닝할 식재료 정리 v1.1_동준수정중 건드리지 마시오.xlsx
+++ b/딥러닝할 식재료 정리 v1.1_동준수정중 건드리지 마시오.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\KPU\종합설계\gitHub\KPU-LeeDJ_ParkBN_YuHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779D4898-2522-4D4F-945F-A17C6DE1D481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16027409-0A7A-4A1D-8B64-66C68E1E6B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{8BCBD5EC-3F4D-5F48-A796-FAB6AB22E564}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="230">
   <si>
     <t>농산물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,22 @@
   </si>
   <si>
     <t>flounder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchovy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclina sinensis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water wakame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>croaker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00135767-4117-3C49-97AC-9F38A9C6C5AB}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -2875,7 +2891,9 @@
       <c r="C81" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="7"/>
+      <c r="D81" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
@@ -2899,7 +2917,9 @@
       <c r="C83" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
@@ -2911,7 +2931,9 @@
       <c r="C84" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
@@ -2947,7 +2969,9 @@
       <c r="C87" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="6">

--- a/딥러닝할 식재료 정리 v1.1_동준수정중 건드리지 마시오.xlsx
+++ b/딥러닝할 식재료 정리 v1.1_동준수정중 건드리지 마시오.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\KPU\종합설계\gitHub\KPU-LeeDJ_ParkBN_YuHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16027409-0A7A-4A1D-8B64-66C68E1E6B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99101587-4344-428F-86B1-FD4C6D08FA9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{8BCBD5EC-3F4D-5F48-A796-FAB6AB22E564}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{8BCBD5EC-3F4D-5F48-A796-FAB6AB22E564}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="250">
   <si>
     <t>농산물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,9 +361,6 @@
     <t>김치</t>
   </si>
   <si>
-    <t>깐계란</t>
-  </si>
-  <si>
     <t>깐메추리알</t>
   </si>
   <si>
@@ -521,10 +518,6 @@
   </si>
   <si>
     <t>sesame leaf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shepherd's purse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -847,6 +840,94 @@
   </si>
   <si>
     <t>croaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manila clam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seriola quinqueradiata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pampus argenteus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scomberomorus niphonius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrimp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lophiomus setigerus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">squid </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>larimichthys polyactis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webfoot octopus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tuna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clupea pallasii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uroteuthis chinensis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jellyfish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mussel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crab meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gochujang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chili powder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>konjac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> roasted seaweed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimchi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐계란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shepherds purse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,6 +1175,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1412,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00135767-4117-3C49-97AC-9F38A9C6C5AB}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1432,16 +1519,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="12" t="s">
@@ -1457,7 +1544,7 @@
         <v>100</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="1"/>
@@ -1467,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -1508,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1528,11 +1615,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2"/>
@@ -1545,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1568,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="2"/>
@@ -1583,10 +1670,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1603,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="2"/>
@@ -1618,10 +1705,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1638,10 +1725,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1658,10 +1745,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -1678,10 +1765,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1698,10 +1785,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -1718,10 +1805,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -1738,10 +1825,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -1758,10 +1845,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1775,13 +1862,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -1798,10 +1885,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -1818,10 +1905,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -1837,10 +1924,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -1856,10 +1943,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -1875,10 +1962,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -1894,10 +1981,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1913,10 +2000,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -1932,10 +2019,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -1951,7 +2038,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="7"/>
       <c r="I26" s="2"/>
@@ -1965,10 +2052,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -1984,10 +2071,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -2003,10 +2090,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -2022,10 +2109,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -2041,10 +2128,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -2060,10 +2147,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -2079,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -2098,10 +2185,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -2117,10 +2204,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -2136,10 +2223,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -2155,10 +2242,10 @@
         <v>34</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -2174,10 +2261,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -2193,10 +2280,10 @@
         <v>36</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -2211,10 +2298,10 @@
         <v>37</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -2229,10 +2316,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -2246,10 +2333,10 @@
         <v>39</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -2263,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="7"/>
     </row>
@@ -2275,10 +2362,10 @@
         <v>41</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -2292,10 +2379,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -2306,13 +2393,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -2323,13 +2410,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -2343,10 +2430,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -2360,10 +2447,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -2377,10 +2464,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -2394,10 +2481,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -2411,10 +2498,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -2428,10 +2515,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -2445,10 +2532,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -2462,10 +2549,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -2479,10 +2566,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -2496,10 +2583,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
@@ -2513,10 +2600,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -2530,10 +2617,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
@@ -2547,10 +2634,10 @@
         <v>56</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
@@ -2564,10 +2651,10 @@
         <v>57</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -2581,10 +2668,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -2595,13 +2682,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -2615,10 +2702,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -2632,10 +2719,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -2649,7 +2736,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="7"/>
     </row>
@@ -2661,10 +2748,10 @@
         <v>63</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -2678,10 +2765,10 @@
         <v>64</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -2695,10 +2782,10 @@
         <v>65</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -2712,10 +2799,10 @@
         <v>66</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -2729,10 +2816,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -2746,10 +2833,10 @@
         <v>68</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -2763,10 +2850,10 @@
         <v>69</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -2780,10 +2867,10 @@
         <v>70</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -2797,10 +2884,10 @@
         <v>71</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -2814,10 +2901,10 @@
         <v>72</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -2831,10 +2918,10 @@
         <v>73</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -2848,10 +2935,10 @@
         <v>74</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -2865,7 +2952,7 @@
         <v>75</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="7"/>
     </row>
@@ -2877,7 +2964,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D80" s="7"/>
     </row>
@@ -2889,10 +2976,10 @@
         <v>77</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -2903,7 +2990,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D82" s="7"/>
     </row>
@@ -2915,10 +3002,10 @@
         <v>79</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -2929,10 +3016,10 @@
         <v>80</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -2943,7 +3030,7 @@
         <v>81</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D85" s="7"/>
     </row>
@@ -2955,7 +3042,7 @@
         <v>82</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="7"/>
     </row>
@@ -2967,10 +3054,10 @@
         <v>83</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -2981,9 +3068,11 @@
         <v>84</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
@@ -2993,9 +3082,11 @@
         <v>85</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
@@ -3005,9 +3096,11 @@
         <v>86</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
@@ -3017,9 +3110,11 @@
         <v>87</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
@@ -3029,9 +3124,11 @@
         <v>88</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
@@ -3041,9 +3138,11 @@
         <v>89</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D93" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
@@ -3053,9 +3152,11 @@
         <v>90</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D94" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
@@ -3065,9 +3166,11 @@
         <v>91</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
@@ -3077,9 +3180,11 @@
         <v>92</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D96" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
@@ -3089,9 +3194,11 @@
         <v>93</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
@@ -3101,9 +3208,11 @@
         <v>94</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
@@ -3113,7 +3222,7 @@
         <v>95</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="7"/>
     </row>
@@ -3125,7 +3234,7 @@
         <v>96</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D100" s="7"/>
     </row>
@@ -3137,9 +3246,11 @@
         <v>97</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
@@ -3149,9 +3260,11 @@
         <v>98</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
@@ -3161,9 +3274,11 @@
         <v>99</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
@@ -3173,9 +3288,11 @@
         <v>101</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
@@ -3185,9 +3302,11 @@
         <v>102</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
@@ -3197,9 +3316,11 @@
         <v>103</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
@@ -3209,9 +3330,11 @@
         <v>104</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D107" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
@@ -3221,9 +3344,11 @@
         <v>105</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D108" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
@@ -3233,19 +3358,21 @@
         <v>106</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>107</v>
+      <c r="B110" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" s="7"/>
     </row>
@@ -3254,10 +3381,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D111" s="7"/>
     </row>
@@ -3266,10 +3393,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D112" s="7"/>
     </row>
@@ -3278,10 +3405,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113" s="7"/>
     </row>
@@ -3290,10 +3417,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D114" s="7"/>
     </row>
@@ -3302,10 +3429,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D115" s="7"/>
     </row>
@@ -3314,10 +3441,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D116" s="7"/>
     </row>
@@ -3326,10 +3453,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D117" s="7"/>
     </row>
@@ -3338,10 +3465,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D118" s="7"/>
     </row>
@@ -3350,10 +3477,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D119" s="7"/>
     </row>
@@ -3362,10 +3489,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D120" s="7"/>
     </row>
@@ -3374,10 +3501,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D121" s="7"/>
     </row>
@@ -3386,10 +3513,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D122" s="7"/>
     </row>
@@ -3398,10 +3525,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" s="7"/>
     </row>
@@ -3410,10 +3537,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D124" s="7"/>
     </row>
@@ -3422,10 +3549,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D125" s="7"/>
     </row>
@@ -3434,10 +3561,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D126" s="7"/>
     </row>
@@ -3446,10 +3573,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D127" s="7"/>
     </row>
@@ -3458,10 +3585,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D128" s="7"/>
     </row>
@@ -3470,10 +3597,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" s="7"/>
     </row>
@@ -3482,10 +3609,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D130" s="7"/>
     </row>
@@ -3494,10 +3621,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D131" s="7"/>
     </row>
@@ -3506,10 +3633,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" s="7"/>
     </row>
@@ -3518,10 +3645,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D133" s="7"/>
     </row>
@@ -3530,10 +3657,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D134" s="7"/>
     </row>
@@ -3542,10 +3669,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D135" s="7"/>
     </row>
@@ -3554,10 +3681,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D136" s="7"/>
     </row>
@@ -3566,10 +3693,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D137" s="7"/>
     </row>
@@ -3578,10 +3705,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D138" s="7"/>
     </row>
@@ -3590,10 +3717,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D139" s="7"/>
     </row>
@@ -3602,10 +3729,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D140" s="7"/>
     </row>
@@ -3614,10 +3741,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D141" s="7"/>
     </row>
@@ -3626,10 +3753,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D142" s="7"/>
     </row>
